--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1284.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1284.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8333520530627232</v>
+        <v>1.132076025009155</v>
       </c>
       <c r="B1">
-        <v>1.52030818959281</v>
+        <v>2.235070705413818</v>
       </c>
       <c r="C1">
-        <v>5.227143254920678</v>
+        <v>10.43289947509766</v>
       </c>
       <c r="D1">
-        <v>3.757229422896998</v>
+        <v>2.238921642303467</v>
       </c>
       <c r="E1">
-        <v>1.509962144459259</v>
+        <v>1.282428503036499</v>
       </c>
     </row>
   </sheetData>
